--- a/uploads/moneglisedata.xlsx
+++ b/uploads/moneglisedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC89BC-2172-47AE-BD43-AFD5C27ACECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68E70A-FA95-4469-B9E2-DDB23AC64B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>culte</t>
-  </si>
-  <si>
-    <t>Fanompom-pivavahana</t>
   </si>
   <si>
     <t>François Rastier définit le texte comme « une suite linguistique autonome (orale ou écrite) constituant une unité empirique, et produite par un ou plusieurs énonciateurs dans une pratique sociale attestée » (François Rastier, 2001, Arts et sciences d</t>
@@ -1763,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1808,13 +1805,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1823,56 +1820,56 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
+      <c r="D4" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1881,56 +1878,56 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>60</v>
+      <c r="D6" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1939,56 +1936,56 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
+      <c r="D8" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1997,56 +1994,56 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
+      <c r="D10" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
@@ -2055,56 +2052,56 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
+      <c r="D12" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -2113,56 +2110,56 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>60</v>
+      <c r="D14" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2171,56 +2168,56 @@
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>60</v>
+      <c r="D16" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -2229,56 +2226,56 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
+      <c r="D18" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -2287,56 +2284,56 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
+      <c r="D20" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -2345,56 +2342,56 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>60</v>
+      <c r="D22" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -2403,56 +2400,56 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
+      <c r="D24" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -2461,56 +2458,56 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
-        <v>60</v>
+      <c r="D26" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -2519,56 +2516,56 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
-        <v>60</v>
+      <c r="D28" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -2577,56 +2574,56 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
-        <v>60</v>
+      <c r="D30" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -2635,56 +2632,56 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="s">
-        <v>60</v>
+      <c r="D32" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
@@ -2693,56 +2690,56 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="s">
-        <v>60</v>
+      <c r="D34" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
@@ -2751,56 +2748,56 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="s">
-        <v>60</v>
+      <c r="D36" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -2809,56 +2806,56 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
-        <v>60</v>
+      <c r="D38" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -2867,56 +2864,56 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" t="s">
-        <v>60</v>
+      <c r="D40" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -2925,56 +2922,56 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41">
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="s">
-        <v>60</v>
+      <c r="D42" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -2983,56 +2980,56 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" t="s">
-        <v>60</v>
+      <c r="D44" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
@@ -3041,56 +3038,56 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="D46" t="s">
-        <v>60</v>
+      <c r="D46" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
@@ -3099,56 +3096,56 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
-        <v>60</v>
+      <c r="D48" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
@@ -3157,56 +3154,56 @@
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49">
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s">
-        <v>60</v>
+      <c r="D50" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -3215,56 +3212,56 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" t="s">
-        <v>60</v>
+      <c r="D52" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -3273,56 +3270,56 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" t="s">
-        <v>60</v>
+      <c r="D54" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
@@ -3331,56 +3328,56 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
-      <c r="D56" t="s">
-        <v>60</v>
+      <c r="D56" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -3389,56 +3386,56 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57">
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
       </c>
-      <c r="D58" t="s">
-        <v>60</v>
+      <c r="D58" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
@@ -3447,56 +3444,56 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59">
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
       </c>
-      <c r="D60" t="s">
-        <v>60</v>
+      <c r="D60" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -3505,56 +3502,56 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F61">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
       </c>
-      <c r="D62" t="s">
-        <v>60</v>
+      <c r="D62" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
@@ -3563,56 +3560,56 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
-      <c r="D64" t="s">
-        <v>60</v>
+      <c r="D64" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
@@ -3621,56 +3618,56 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F65">
         <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
       </c>
-      <c r="D66" t="s">
-        <v>60</v>
+      <c r="D66" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
@@ -3679,56 +3676,56 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F67">
         <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
         <v>57</v>
       </c>
-      <c r="D68" t="s">
-        <v>60</v>
+      <c r="D68" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
@@ -3737,56 +3734,56 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F69">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
       </c>
-      <c r="D70" t="s">
-        <v>60</v>
+      <c r="D70" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E70" t="s">
         <v>58</v>
@@ -3795,56 +3792,56 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F71">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
       </c>
-      <c r="D72" t="s">
-        <v>60</v>
+      <c r="D72" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -3853,56 +3850,56 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I72" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F73">
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
         <v>57</v>
       </c>
-      <c r="D74" t="s">
-        <v>60</v>
+      <c r="D74" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
@@ -3911,56 +3908,56 @@
         <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75">
         <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
         <v>57</v>
       </c>
-      <c r="D76" t="s">
-        <v>60</v>
+      <c r="D76" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
@@ -3969,56 +3966,56 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F77">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
         <v>57</v>
       </c>
-      <c r="D78" t="s">
-        <v>60</v>
+      <c r="D78" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -4027,56 +4024,56 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F79">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
       </c>
-      <c r="D80" t="s">
-        <v>60</v>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
@@ -4085,56 +4082,56 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F81">
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
         <v>57</v>
       </c>
-      <c r="D82" t="s">
-        <v>60</v>
+      <c r="D82" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -4143,56 +4140,56 @@
         <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F83">
         <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
         <v>57</v>
       </c>
-      <c r="D84" t="s">
-        <v>60</v>
+      <c r="D84" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
@@ -4201,56 +4198,56 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I84" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
         <v>57</v>
       </c>
-      <c r="D86" t="s">
-        <v>60</v>
+      <c r="D86" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E86" t="s">
         <v>58</v>
@@ -4259,42 +4256,42 @@
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I86" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4333,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,13 +4344,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4381,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4398,33 +4395,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4432,72 +4429,72 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
         <v>240</v>
-      </c>
-      <c r="C8" t="s">
-        <v>241</v>
       </c>
       <c r="D8">
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4527,10 +4524,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4539,566 +4536,566 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
         <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
         <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
         <v>125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
         <v>129</v>
       </c>
-      <c r="B29" t="s">
-        <v>130</v>
-      </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/moneglisedata.xlsx
+++ b/uploads/moneglisedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B68E70A-FA95-4469-B9E2-DDB23AC64B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D84322-B722-4A37-81C5-40282BD70CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,9 +737,6 @@
     <t>10 H 30</t>
   </si>
   <si>
-    <t>Ny Sampana Lehilahy Kristianina eto Melun manasa anareo ny Alahady 16 Juin, fotoana hankalazana ny andron'ny Ray izao. Mahafaly anay ny fahatongavanareo.</t>
-  </si>
-  <si>
     <t>SAMPANA</t>
   </si>
   <si>
@@ -747,6 +744,9 @@
   </si>
   <si>
     <t>1900-06-18T21:59:39.000Z</t>
+  </si>
+  <si>
+    <t>Ny Sampana Vehivavy Kristianina eto Melun manasa anareo ny Alahady 16 Juin, fotoana hankalazana ny andron'ny Ray izao. Mahafaly anay ny fahatongavanareo.</t>
   </si>
 </sst>
 </file>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1811,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1840,7 +1840,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1869,7 +1869,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1898,7 +1898,7 @@
         <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1927,7 +1927,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1956,7 +1956,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -1985,7 +1985,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -2014,7 +2014,7 @@
         <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -2043,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
@@ -2072,7 +2072,7 @@
         <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -2101,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -2130,7 +2130,7 @@
         <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2159,7 +2159,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2188,7 +2188,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -2217,7 +2217,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -2246,7 +2246,7 @@
         <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -2275,7 +2275,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -2304,7 +2304,7 @@
         <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -2333,7 +2333,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -2362,7 +2362,7 @@
         <v>148</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -2391,7 +2391,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -2420,7 +2420,7 @@
         <v>148</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
@@ -2449,7 +2449,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -2478,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2507,7 +2507,7 @@
         <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -2536,7 +2536,7 @@
         <v>148</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -2565,7 +2565,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -2594,7 +2594,7 @@
         <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -2623,7 +2623,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -2652,7 +2652,7 @@
         <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -2681,7 +2681,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
@@ -2710,7 +2710,7 @@
         <v>148</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2739,7 +2739,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
@@ -2768,7 +2768,7 @@
         <v>148</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2797,7 +2797,7 @@
         <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -2826,7 +2826,7 @@
         <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2855,7 +2855,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -2884,7 +2884,7 @@
         <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2913,7 +2913,7 @@
         <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -2942,7 +2942,7 @@
         <v>148</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2971,7 +2971,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -3000,7 +3000,7 @@
         <v>148</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -3029,7 +3029,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
@@ -3058,7 +3058,7 @@
         <v>148</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -3087,7 +3087,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
@@ -3116,7 +3116,7 @@
         <v>148</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -3145,7 +3145,7 @@
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
@@ -3174,7 +3174,7 @@
         <v>148</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -3203,7 +3203,7 @@
         <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -3232,7 +3232,7 @@
         <v>148</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
         <v>61</v>
@@ -3261,7 +3261,7 @@
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -3290,7 +3290,7 @@
         <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
         <v>61</v>
@@ -3319,7 +3319,7 @@
         <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
@@ -3348,7 +3348,7 @@
         <v>148</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
         <v>61</v>
@@ -3377,7 +3377,7 @@
         <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -3406,7 +3406,7 @@
         <v>148</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>61</v>
@@ -3435,7 +3435,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
@@ -3464,7 +3464,7 @@
         <v>148</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
@@ -3493,7 +3493,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -3522,7 +3522,7 @@
         <v>148</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
         <v>61</v>
@@ -3551,7 +3551,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
@@ -3580,7 +3580,7 @@
         <v>148</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -3609,7 +3609,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
@@ -3638,7 +3638,7 @@
         <v>148</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
         <v>61</v>
@@ -3667,7 +3667,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
@@ -3696,7 +3696,7 @@
         <v>148</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -3725,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
@@ -3754,7 +3754,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
         <v>61</v>
@@ -3783,7 +3783,7 @@
         <v>57</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
         <v>58</v>
@@ -3812,7 +3812,7 @@
         <v>148</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
         <v>61</v>
@@ -3841,7 +3841,7 @@
         <v>57</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -3870,7 +3870,7 @@
         <v>148</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
         <v>61</v>
@@ -3899,7 +3899,7 @@
         <v>57</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
@@ -3928,7 +3928,7 @@
         <v>148</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
         <v>61</v>
@@ -3957,7 +3957,7 @@
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
@@ -3986,7 +3986,7 @@
         <v>148</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -4015,7 +4015,7 @@
         <v>57</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -4044,7 +4044,7 @@
         <v>148</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>61</v>
@@ -4073,7 +4073,7 @@
         <v>57</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
@@ -4102,7 +4102,7 @@
         <v>148</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E81" t="s">
         <v>61</v>
@@ -4131,7 +4131,7 @@
         <v>57</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -4160,7 +4160,7 @@
         <v>148</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>61</v>
@@ -4189,7 +4189,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
@@ -4218,7 +4218,7 @@
         <v>148</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
         <v>61</v>
@@ -4247,7 +4247,7 @@
         <v>57</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E86" t="s">
         <v>58</v>
@@ -4276,7 +4276,7 @@
         <v>148</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
         <v>61</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
         <v>239</v>
-      </c>
-      <c r="C8" t="s">
-        <v>240</v>
       </c>
       <c r="D8">
         <v>101</v>

--- a/uploads/moneglisedata.xlsx
+++ b/uploads/moneglisedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D84322-B722-4A37-81C5-40282BD70CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691BEF3-7AE1-4B77-9840-8E3CCB67C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -263,9 +263,6 @@
     <t>2018-12-31T21:59:39.000Z</t>
   </si>
   <si>
-    <t>Sary tamin’ny alahadin’ny Mpitandrina 19062022</t>
-  </si>
-  <si>
     <t>profil</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
     <t>10 H 30</t>
   </si>
   <si>
+    <t>Ny Sampana Lehilahy Kristianina eto Melun manasa anareo ny Alahady 16 Juin, fotoana hankalazana ny andron'ny Ray izao. Mahafaly anay ny fahatongavanareo.</t>
+  </si>
+  <si>
     <t>SAMPANA</t>
   </si>
   <si>
@@ -746,7 +746,10 @@
     <t>1900-06-18T21:59:39.000Z</t>
   </si>
   <si>
-    <t>Ny Sampana Vehivavy Kristianina eto Melun manasa anareo ny Alahady 16 Juin, fotoana hankalazana ny andron'ny Ray izao. Mahafaly anay ny fahatongavanareo.</t>
+    <t>Sary fahatsiarovana  Alahady 03 Oktobra 2021</t>
+  </si>
+  <si>
+    <t>Sary tamin ny alahadin ny Mpitandrina 19062022</t>
   </si>
 </sst>
 </file>
@@ -1760,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1805,13 +1808,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1820,10 +1823,10 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
@@ -1834,13 +1837,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1849,10 +1852,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -1863,13 +1866,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1878,10 +1881,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
         <v>59</v>
@@ -1892,13 +1895,13 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1907,10 +1910,10 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -1921,13 +1924,13 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1936,10 +1939,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
@@ -1950,13 +1953,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -1965,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -1979,13 +1982,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1994,10 +1997,10 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
@@ -2008,13 +2011,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -2023,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -2037,13 +2040,13 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
@@ -2052,10 +2055,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -2066,13 +2069,13 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -2081,10 +2084,10 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
         <v>62</v>
@@ -2095,13 +2098,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -2110,10 +2113,10 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -2124,13 +2127,13 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2139,10 +2142,10 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
         <v>62</v>
@@ -2153,13 +2156,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2168,10 +2171,10 @@
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -2182,13 +2185,13 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -2197,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
         <v>62</v>
@@ -2211,13 +2214,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -2226,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -2240,13 +2243,13 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -2255,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17" t="s">
         <v>62</v>
@@ -2269,13 +2272,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -2284,10 +2287,10 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
@@ -2298,13 +2301,13 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -2313,10 +2316,10 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I19" t="s">
         <v>62</v>
@@ -2327,13 +2330,13 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -2342,10 +2345,10 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
@@ -2356,13 +2359,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -2371,10 +2374,10 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
         <v>62</v>
@@ -2385,13 +2388,13 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -2400,10 +2403,10 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
@@ -2414,13 +2417,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
@@ -2429,10 +2432,10 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -2443,13 +2446,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -2458,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
@@ -2472,13 +2475,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2487,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I25" t="s">
         <v>62</v>
@@ -2501,13 +2504,13 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -2516,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
@@ -2530,13 +2533,13 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -2545,10 +2548,10 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -2559,13 +2562,13 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -2574,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
@@ -2588,13 +2591,13 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -2603,10 +2606,10 @@
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -2617,13 +2620,13 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -2632,10 +2635,10 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
@@ -2646,13 +2649,13 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -2661,10 +2664,10 @@
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -2675,13 +2678,13 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
@@ -2690,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
@@ -2704,13 +2707,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2719,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -2733,13 +2736,13 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
@@ -2748,10 +2751,10 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
@@ -2762,13 +2765,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2777,10 +2780,10 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -2791,13 +2794,13 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -2806,10 +2809,10 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I36" t="s">
         <v>59</v>
@@ -2820,13 +2823,13 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2835,10 +2838,10 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -2849,13 +2852,13 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -2864,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
@@ -2878,13 +2881,13 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2893,10 +2896,10 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
@@ -2907,13 +2910,13 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -2922,10 +2925,10 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
         <v>59</v>
@@ -2936,13 +2939,13 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2951,10 +2954,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I41" t="s">
         <v>62</v>
@@ -2965,13 +2968,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -2980,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
         <v>59</v>
@@ -2994,13 +2997,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -3009,10 +3012,10 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -3023,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
@@ -3038,10 +3041,10 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I44" t="s">
         <v>59</v>
@@ -3052,13 +3055,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -3067,10 +3070,10 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I45" t="s">
         <v>62</v>
@@ -3081,13 +3084,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
@@ -3096,10 +3099,10 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
         <v>59</v>
@@ -3110,13 +3113,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -3125,10 +3128,10 @@
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I47" t="s">
         <v>62</v>
@@ -3139,13 +3142,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
@@ -3154,10 +3157,10 @@
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I48" t="s">
         <v>59</v>
@@ -3168,13 +3171,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -3183,10 +3186,10 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
         <v>62</v>
@@ -3197,13 +3200,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -3212,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I50" t="s">
         <v>59</v>
@@ -3226,13 +3229,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
         <v>61</v>
@@ -3241,10 +3244,10 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I51" t="s">
         <v>62</v>
@@ -3255,13 +3258,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -3270,10 +3273,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
         <v>59</v>
@@ -3284,13 +3287,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
         <v>61</v>
@@ -3299,10 +3302,10 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I53" t="s">
         <v>62</v>
@@ -3313,13 +3316,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
@@ -3328,10 +3331,10 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I54" t="s">
         <v>59</v>
@@ -3342,13 +3345,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
         <v>61</v>
@@ -3357,10 +3360,10 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
@@ -3371,13 +3374,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -3386,10 +3389,10 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" t="s">
         <v>59</v>
@@ -3400,13 +3403,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
         <v>61</v>
@@ -3415,10 +3418,10 @@
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s">
         <v>62</v>
@@ -3429,13 +3432,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
@@ -3444,10 +3447,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" t="s">
         <v>59</v>
@@ -3458,13 +3461,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
@@ -3473,10 +3476,10 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I59" t="s">
         <v>62</v>
@@ -3487,13 +3490,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -3502,10 +3505,10 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I60" t="s">
         <v>59</v>
@@ -3516,13 +3519,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
         <v>61</v>
@@ -3531,10 +3534,10 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I61" t="s">
         <v>62</v>
@@ -3545,13 +3548,13 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
@@ -3560,10 +3563,10 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I62" t="s">
         <v>59</v>
@@ -3574,13 +3577,13 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -3589,10 +3592,10 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I63" t="s">
         <v>62</v>
@@ -3603,13 +3606,13 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
@@ -3618,10 +3621,10 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I64" t="s">
         <v>59</v>
@@ -3632,13 +3635,13 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
         <v>61</v>
@@ -3647,10 +3650,10 @@
         <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I65" t="s">
         <v>62</v>
@@ -3661,13 +3664,13 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
@@ -3676,10 +3679,10 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I66" t="s">
         <v>59</v>
@@ -3690,13 +3693,13 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -3705,10 +3708,10 @@
         <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I67" t="s">
         <v>62</v>
@@ -3719,13 +3722,13 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C68" t="s">
         <v>57</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
@@ -3734,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I68" t="s">
         <v>59</v>
@@ -3748,13 +3751,13 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
         <v>61</v>
@@ -3763,10 +3766,10 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I69" t="s">
         <v>62</v>
@@ -3777,13 +3780,13 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
         <v>58</v>
@@ -3792,10 +3795,10 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I70" t="s">
         <v>59</v>
@@ -3806,13 +3809,13 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
         <v>61</v>
@@ -3821,10 +3824,10 @@
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I71" t="s">
         <v>62</v>
@@ -3835,13 +3838,13 @@
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -3850,10 +3853,10 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I72" t="s">
         <v>59</v>
@@ -3864,13 +3867,13 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
         <v>61</v>
@@ -3879,10 +3882,10 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I73" t="s">
         <v>62</v>
@@ -3893,13 +3896,13 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
@@ -3908,10 +3911,10 @@
         <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I74" t="s">
         <v>59</v>
@@ -3922,13 +3925,13 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E75" t="s">
         <v>61</v>
@@ -3937,10 +3940,10 @@
         <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
         <v>62</v>
@@ -3951,13 +3954,13 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
@@ -3966,10 +3969,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I76" t="s">
         <v>59</v>
@@ -3980,13 +3983,13 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -3995,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I77" t="s">
         <v>62</v>
@@ -4009,13 +4012,13 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
         <v>57</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -4024,10 +4027,10 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I78" t="s">
         <v>59</v>
@@ -4038,13 +4041,13 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
         <v>61</v>
@@ -4053,10 +4056,10 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I79" t="s">
         <v>62</v>
@@ -4067,13 +4070,13 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
@@ -4082,10 +4085,10 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I80" t="s">
         <v>59</v>
@@ -4096,13 +4099,13 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
         <v>61</v>
@@ -4111,10 +4114,10 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I81" t="s">
         <v>62</v>
@@ -4125,13 +4128,13 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
         <v>57</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -4140,10 +4143,10 @@
         <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I82" t="s">
         <v>59</v>
@@ -4154,13 +4157,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
         <v>61</v>
@@ -4169,10 +4172,10 @@
         <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I83" t="s">
         <v>62</v>
@@ -4183,13 +4186,13 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
@@ -4198,10 +4201,10 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I84" t="s">
         <v>59</v>
@@ -4212,13 +4215,13 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
         <v>61</v>
@@ -4227,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I85" t="s">
         <v>62</v>
@@ -4241,13 +4244,13 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" t="s">
         <v>57</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E86" t="s">
         <v>58</v>
@@ -4256,10 +4259,10 @@
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I86" t="s">
         <v>59</v>
@@ -4270,13 +4273,13 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
         <v>61</v>
@@ -4285,10 +4288,10 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I87" t="s">
         <v>62</v>
@@ -4365,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -4500,7 +4503,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E3 B6:E6 A5:E5 B4:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4524,10 +4527,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4536,566 +4539,566 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
         <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
         <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
         <v>114</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
         <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
         <v>133</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/moneglisedata.xlsx
+++ b/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\MONEGLISE\projet\content\browser\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691BEF3-7AE1-4B77-9840-8E3CCB67C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CF239-4B62-4AC0-9A0C-AE479C0728B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -215,15 +215,9 @@
     <t>distance</t>
   </si>
   <si>
-    <t>trirerere</t>
-  </si>
-  <si>
     <t>2024-04-14T21:59:39.000Z</t>
   </si>
   <si>
-    <t>udno</t>
-  </si>
-  <si>
     <t>2024-04-18T21:59:39.000Z</t>
   </si>
   <si>
@@ -746,10 +740,46 @@
     <t>1900-06-18T21:59:39.000Z</t>
   </si>
   <si>
-    <t>Sary fahatsiarovana  Alahady 03 Oktobra 2021</t>
-  </si>
-  <si>
-    <t>Sary tamin ny alahadin ny Mpitandrina 19062022</t>
+    <t>Sary fahatsiarovana-Alahady 03 Oktobra 2021</t>
+  </si>
+  <si>
+    <t>Sary tamin'ny alahadin'ny Mpitandrina 19062022</t>
+  </si>
+  <si>
+    <t>Rakitra</t>
+  </si>
+  <si>
+    <t>Etude biblique FPMA Melun - 18 juin 2024</t>
+  </si>
+  <si>
+    <t>Matthieu 1. 18-25
+18 Voici de quelle manière arriva la naissance de Jésus-Christ. Marie, sa mère, ayant été fiancée à Joseph, se
+trouva enceinte, par la vertu du Saint-Esprit, avant qu’ils eussent habité ensemble. 19 Joseph, son époux, qui
+était un homme de bien et qui ne voulait pas la diffamer, se proposa de rompre secrètement avec elle. 20
+Comme il y pensait, voici, l’Ange du Seigneur lui apparut en songe, et dit : Joseph, fils de David, ne crains
+pas de prendre avec toi Marie, ta femme, car l’enfant qu’elle a conçu vient du Saint-Esprit ; 21 elle
+enfantera un fils, et tu lui donneras le nom de Jésus; c’est lui qui sauvera son peuple de ses péchés. 22 Tout
+cela arriva afin que s’accomplît ce que le Seigneur avait annoncé par le prophète : 23 Voici, la vierge sera
+enceinte, elle enfantera un fils, et on lui donnera le nom d’Emmanuel, ce qui signifie Dieu avec nous. 24
+Joseph s’étant réveillé fit ce que l’Ange du Seigneur lui avait ordonné, et il prit sa femme avec lui. 25 Mais
+il ne la connut point jusqu’à ce qu’elle eût enfanté un fils, auquel il donna le nom de Jésus.
+QUESTIONS
+1. Au verset 18, quel « scandale » rapporte Matthieu ? Que signifient les fiançailles ?
+.
+2. Au verset 19, par quel terme Matthieu désigne-t-il Joseph par rapport à Marie ? Commentez.
+2.1. Pourquoi Joseph a-t-il voulu rompre ?
+2.2. Comment pensait-il traiter le problème ? Commentez.
+.
+3. Qui prend l’initiative dans la conception de Jésus ?
+3.1. Comparer la naissance de Jésus avec la naissance de serviteurs de Dieu qui naquirent à la suite
+d’une intervention divine. (Ge. 18.11-14 ; 1S.1.8-20 ; Lu.1.5-25 ; Mt.1.25).
+.
+3.2. Pourquoi Jésus a-t-il pris corps en la Vierge Marie ? (v.22. Cf. Gn 3.13-15 ; Lc 1.28-35 ; Hb 2.14-
+18 ; Co 2.9-15 ; voir aussi: Jn.3.16).
+4. Matthieu s’appuie sur Es 7.14 pour fonder l’accomplissement de la naissance de Jésus. D’après vous,
+pourquoi Joseph n’a-t-il pas donné le nom d’Emmanuel à son fils ?
+5. Qu’a fait Joseph devant la parole qu’il a reçue ? (v.24 ; v.25)
+6. Applications.</t>
   </si>
 </sst>
 </file>
@@ -797,11 +827,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,11 +1177,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1748,8 +1786,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
+    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45461.958333333336</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D87"/>
     </sheetView>
   </sheetViews>
@@ -1808,13 +1863,13 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1823,10 +1878,10 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
@@ -1837,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1852,10 +1907,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -1866,13 +1921,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1881,10 +1936,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
         <v>59</v>
@@ -1895,13 +1950,13 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1910,10 +1965,10 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -1924,13 +1979,13 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1939,10 +1994,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
@@ -1953,13 +2008,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -1968,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -1982,13 +2037,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1997,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
@@ -2011,13 +2066,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -2026,10 +2081,10 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -2040,13 +2095,13 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
         <v>58</v>
@@ -2055,10 +2110,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -2069,13 +2124,13 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -2084,10 +2139,10 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
         <v>62</v>
@@ -2098,13 +2153,13 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -2113,10 +2168,10 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -2127,13 +2182,13 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -2142,10 +2197,10 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
         <v>62</v>
@@ -2156,13 +2211,13 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2171,10 +2226,10 @@
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -2185,13 +2240,13 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -2200,10 +2255,10 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
         <v>62</v>
@@ -2214,13 +2269,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -2229,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -2243,13 +2298,13 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -2258,10 +2313,10 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I17" t="s">
         <v>62</v>
@@ -2272,13 +2327,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -2287,10 +2342,10 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
@@ -2301,13 +2356,13 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -2316,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
         <v>62</v>
@@ -2330,13 +2385,13 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -2345,10 +2400,10 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
@@ -2359,13 +2414,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -2374,10 +2429,10 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
         <v>62</v>
@@ -2388,13 +2443,13 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -2403,10 +2458,10 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
@@ -2417,13 +2472,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
         <v>61</v>
@@ -2432,10 +2487,10 @@
         <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
         <v>62</v>
@@ -2446,13 +2501,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -2461,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
@@ -2475,13 +2530,13 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2490,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I25" t="s">
         <v>62</v>
@@ -2504,13 +2559,13 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -2519,10 +2574,10 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
@@ -2533,13 +2588,13 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -2548,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -2562,13 +2617,13 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -2577,10 +2632,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
@@ -2591,13 +2646,13 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -2606,10 +2661,10 @@
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -2620,13 +2675,13 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -2635,10 +2690,10 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
@@ -2649,13 +2704,13 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -2664,10 +2719,10 @@
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -2678,13 +2733,13 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E32" t="s">
         <v>58</v>
@@ -2693,10 +2748,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
@@ -2707,13 +2762,13 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -2722,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -2736,13 +2791,13 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
@@ -2751,10 +2806,10 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
@@ -2765,13 +2820,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -2780,10 +2835,10 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -2794,13 +2849,13 @@
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -2809,10 +2864,10 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I36" t="s">
         <v>59</v>
@@ -2823,13 +2878,13 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -2838,10 +2893,10 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -2852,13 +2907,13 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -2867,10 +2922,10 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
@@ -2881,13 +2936,13 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E39" t="s">
         <v>61</v>
@@ -2896,10 +2951,10 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
@@ -2910,13 +2965,13 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -2925,10 +2980,10 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
         <v>59</v>
@@ -2939,13 +2994,13 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E41" t="s">
         <v>61</v>
@@ -2954,10 +3009,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
         <v>62</v>
@@ -2968,13 +3023,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
         <v>58</v>
@@ -2983,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
         <v>59</v>
@@ -2997,13 +3052,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
         <v>61</v>
@@ -3012,10 +3067,10 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -3026,13 +3081,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
@@ -3041,10 +3096,10 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
         <v>59</v>
@@ -3055,13 +3110,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
@@ -3070,10 +3125,10 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I45" t="s">
         <v>62</v>
@@ -3084,13 +3139,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
         <v>58</v>
@@ -3099,10 +3154,10 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
         <v>59</v>
@@ -3113,13 +3168,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
         <v>61</v>
@@ -3128,10 +3183,10 @@
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I47" t="s">
         <v>62</v>
@@ -3142,13 +3197,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
@@ -3157,10 +3212,10 @@
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I48" t="s">
         <v>59</v>
@@ -3171,13 +3226,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -3186,10 +3241,10 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I49" t="s">
         <v>62</v>
@@ -3200,13 +3255,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -3215,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
         <v>59</v>
@@ -3229,13 +3284,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E51" t="s">
         <v>61</v>
@@ -3244,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I51" t="s">
         <v>62</v>
@@ -3258,13 +3313,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
@@ -3273,10 +3328,10 @@
         <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I52" t="s">
         <v>59</v>
@@ -3287,13 +3342,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E53" t="s">
         <v>61</v>
@@ -3302,10 +3357,10 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I53" t="s">
         <v>62</v>
@@ -3316,13 +3371,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
@@ -3331,10 +3386,10 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I54" t="s">
         <v>59</v>
@@ -3345,13 +3400,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
         <v>61</v>
@@ -3360,10 +3415,10 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
@@ -3374,13 +3429,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -3389,10 +3444,10 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I56" t="s">
         <v>59</v>
@@ -3403,13 +3458,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
         <v>61</v>
@@ -3418,10 +3473,10 @@
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I57" t="s">
         <v>62</v>
@@ -3432,13 +3487,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
         <v>58</v>
@@ -3447,10 +3502,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I58" t="s">
         <v>59</v>
@@ -3461,13 +3516,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
@@ -3476,10 +3531,10 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I59" t="s">
         <v>62</v>
@@ -3490,13 +3545,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -3505,10 +3560,10 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I60" t="s">
         <v>59</v>
@@ -3519,13 +3574,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
         <v>61</v>
@@ -3534,10 +3589,10 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
         <v>62</v>
@@ -3548,13 +3603,13 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
         <v>58</v>
@@ -3563,10 +3618,10 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I62" t="s">
         <v>59</v>
@@ -3577,13 +3632,13 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -3592,10 +3647,10 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I63" t="s">
         <v>62</v>
@@ -3606,13 +3661,13 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
@@ -3621,10 +3676,10 @@
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I64" t="s">
         <v>59</v>
@@ -3635,13 +3690,13 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
         <v>61</v>
@@ -3650,10 +3705,10 @@
         <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I65" t="s">
         <v>62</v>
@@ -3664,13 +3719,13 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
         <v>58</v>
@@ -3679,10 +3734,10 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
         <v>59</v>
@@ -3693,13 +3748,13 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
         <v>61</v>
@@ -3708,10 +3763,10 @@
         <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
         <v>62</v>
@@ -3722,13 +3777,13 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
         <v>57</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
@@ -3737,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
         <v>59</v>
@@ -3751,13 +3806,13 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
         <v>61</v>
@@ -3766,10 +3821,10 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
         <v>62</v>
@@ -3780,13 +3835,13 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E70" t="s">
         <v>58</v>
@@ -3795,10 +3850,10 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I70" t="s">
         <v>59</v>
@@ -3809,13 +3864,13 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
         <v>61</v>
@@ -3824,10 +3879,10 @@
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I71" t="s">
         <v>62</v>
@@ -3838,13 +3893,13 @@
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E72" t="s">
         <v>58</v>
@@ -3853,10 +3908,10 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
         <v>59</v>
@@ -3867,13 +3922,13 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E73" t="s">
         <v>61</v>
@@ -3882,10 +3937,10 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
         <v>62</v>
@@ -3896,13 +3951,13 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
@@ -3911,10 +3966,10 @@
         <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" t="s">
         <v>59</v>
@@ -3925,13 +3980,13 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E75" t="s">
         <v>61</v>
@@ -3940,10 +3995,10 @@
         <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I75" t="s">
         <v>62</v>
@@ -3954,13 +4009,13 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
@@ -3969,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I76" t="s">
         <v>59</v>
@@ -3983,13 +4038,13 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E77" t="s">
         <v>61</v>
@@ -3998,10 +4053,10 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I77" t="s">
         <v>62</v>
@@ -4012,13 +4067,13 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
         <v>57</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -4027,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I78" t="s">
         <v>59</v>
@@ -4041,13 +4096,13 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
         <v>61</v>
@@ -4056,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I79" t="s">
         <v>62</v>
@@ -4070,13 +4125,13 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
@@ -4085,10 +4140,10 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I80" t="s">
         <v>59</v>
@@ -4099,13 +4154,13 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E81" t="s">
         <v>61</v>
@@ -4114,10 +4169,10 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I81" t="s">
         <v>62</v>
@@ -4128,13 +4183,13 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
         <v>57</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82" t="s">
         <v>58</v>
@@ -4143,10 +4198,10 @@
         <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I82" t="s">
         <v>59</v>
@@ -4157,13 +4212,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
         <v>61</v>
@@ -4172,10 +4227,10 @@
         <v>25</v>
       </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I83" t="s">
         <v>62</v>
@@ -4186,13 +4241,13 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
@@ -4201,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I84" t="s">
         <v>59</v>
@@ -4215,13 +4270,13 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
         <v>61</v>
@@ -4230,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I85" t="s">
         <v>62</v>
@@ -4244,13 +4299,13 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
         <v>57</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
         <v>58</v>
@@ -4259,10 +4314,10 @@
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I86" t="s">
         <v>59</v>
@@ -4273,13 +4328,13 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E87" t="s">
         <v>61</v>
@@ -4288,10 +4343,10 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I87" t="s">
         <v>62</v>
@@ -4310,9 +4365,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="206.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4333,13 +4394,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,19 +4408,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A3 C3:D3 A2 C2:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4368,20 +4429,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4398,106 +4460,106 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
         <v>237</v>
-      </c>
-      <c r="C7" t="s">
-        <v>239</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8">
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4527,10 +4589,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -4539,566 +4601,566 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
